--- a/Code/Results/Cases/Case_6_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_line/pl_mw.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.076978312594633</v>
+        <v>4.076978312594576</v>
       </c>
       <c r="C2">
-        <v>0.7700349914483411</v>
+        <v>0.7700349914478863</v>
       </c>
       <c r="D2">
-        <v>0.07115402107608659</v>
+        <v>0.07115402107620739</v>
       </c>
       <c r="E2">
         <v>0.03180239946287777</v>
@@ -436,7 +436,7 @@
         <v>2.61265009277426</v>
       </c>
       <c r="G2">
-        <v>0.0008034370034651905</v>
+        <v>0.0008034370034060156</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1491907494676568</v>
+        <v>0.1491907494677207</v>
       </c>
       <c r="M2">
-        <v>0.625140076895228</v>
+        <v>0.6251400768952138</v>
       </c>
       <c r="N2">
         <v>1.428260316246664</v>
@@ -471,19 +471,19 @@
         <v>3.544854329360703</v>
       </c>
       <c r="C3">
-        <v>0.662804263325171</v>
+        <v>0.6628042633256541</v>
       </c>
       <c r="D3">
-        <v>0.07204685823677792</v>
+        <v>0.07204685823679924</v>
       </c>
       <c r="E3">
-        <v>0.03025866439592573</v>
+        <v>0.03025866439591596</v>
       </c>
       <c r="F3">
-        <v>2.366516608001646</v>
+        <v>2.36651660800166</v>
       </c>
       <c r="G3">
-        <v>0.0008132395277532935</v>
+        <v>0.0008132395278117255</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1350097881988788</v>
+        <v>0.135009788198893</v>
       </c>
       <c r="M3">
-        <v>0.5465565771529128</v>
+        <v>0.5465565771528915</v>
       </c>
       <c r="N3">
-        <v>1.45453515333655</v>
+        <v>1.454535153336565</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.225022152181396</v>
+        <v>3.225022152181509</v>
       </c>
       <c r="C4">
         <v>0.5980410278210684</v>
       </c>
       <c r="D4">
-        <v>0.07272978340922265</v>
+        <v>0.07272978340934344</v>
       </c>
       <c r="E4">
-        <v>0.02932292107156531</v>
+        <v>0.02932292107155998</v>
       </c>
       <c r="F4">
-        <v>2.22123952939917</v>
+        <v>2.221239529399185</v>
       </c>
       <c r="G4">
-        <v>0.0008194078966214166</v>
+        <v>0.0008194078967336192</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1265637865491414</v>
+        <v>0.1265637865490774</v>
       </c>
       <c r="M4">
-        <v>0.4993846699685278</v>
+        <v>0.4993846699685349</v>
       </c>
       <c r="N4">
-        <v>1.472838546790285</v>
+        <v>1.472838546790214</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>3.096198543938158</v>
       </c>
       <c r="C5">
-        <v>0.5718749828777163</v>
+        <v>0.5718749828777447</v>
       </c>
       <c r="D5">
-        <v>0.07303955053063049</v>
+        <v>0.07303955053073707</v>
       </c>
       <c r="E5">
-        <v>0.0289438392031478</v>
+        <v>0.02894383920310251</v>
       </c>
       <c r="F5">
-        <v>2.163355089392383</v>
+        <v>2.163355089392397</v>
       </c>
       <c r="G5">
-        <v>0.0008219613841776826</v>
+        <v>0.0008219613841753511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1231812332207056</v>
+        <v>0.1231812332206275</v>
       </c>
       <c r="M5">
-        <v>0.4803997413853693</v>
+        <v>0.4803997413853622</v>
       </c>
       <c r="N5">
-        <v>1.480809209708582</v>
+        <v>1.480809209708539</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.074892586234228</v>
+        <v>3.074892586234284</v>
       </c>
       <c r="C6">
-        <v>0.5675425076617842</v>
+        <v>0.5675425076618126</v>
       </c>
       <c r="D6">
-        <v>0.07309282211929968</v>
+        <v>0.07309282211920376</v>
       </c>
       <c r="E6">
-        <v>0.02888100639450109</v>
+        <v>0.02888100639451618</v>
       </c>
       <c r="F6">
-        <v>2.153818743001224</v>
+        <v>2.153818743001267</v>
       </c>
       <c r="G6">
-        <v>0.0008223878553442433</v>
+        <v>0.000822387855291014</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1226229653626802</v>
+        <v>0.1226229653627371</v>
       </c>
       <c r="M6">
-        <v>0.4772607690717479</v>
+        <v>0.4772607690717408</v>
       </c>
       <c r="N6">
-        <v>1.482162716819502</v>
+        <v>1.482162716819531</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.22327895542378</v>
+        <v>3.223278955423837</v>
       </c>
       <c r="C7">
-        <v>0.5976872870918442</v>
+        <v>0.5976872870923842</v>
       </c>
       <c r="D7">
         <v>0.07273383661808808</v>
       </c>
       <c r="E7">
-        <v>0.02931780056834565</v>
+        <v>0.02931780056832078</v>
       </c>
       <c r="F7">
-        <v>2.220453739602505</v>
+        <v>2.22045373960249</v>
       </c>
       <c r="G7">
-        <v>0.0008194421698619567</v>
+        <v>0.0008194421699758477</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1265179363658149</v>
+        <v>0.1265179363658646</v>
       </c>
       <c r="M7">
-        <v>0.4991277106275049</v>
+        <v>0.499127710627512</v>
       </c>
       <c r="N7">
-        <v>1.472944011861017</v>
+        <v>1.472944011861003</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.891930091107156</v>
+        <v>3.891930091107042</v>
       </c>
       <c r="C8">
-        <v>0.7328096508496458</v>
+        <v>0.7328096508501005</v>
       </c>
       <c r="D8">
-        <v>0.07143238071409996</v>
+        <v>0.07143238071422076</v>
       </c>
       <c r="E8">
-        <v>0.03126709112984383</v>
+        <v>0.03126709112984649</v>
       </c>
       <c r="F8">
-        <v>2.526471872442301</v>
+        <v>2.526471872442357</v>
       </c>
       <c r="G8">
-        <v>0.000806787264696962</v>
+        <v>0.0008067872645824552</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1442429011157031</v>
+        <v>0.1442429011156534</v>
       </c>
       <c r="M8">
-        <v>0.5977995954280644</v>
+        <v>0.5977995954280715</v>
       </c>
       <c r="N8">
-        <v>1.436847941370559</v>
+        <v>1.436847941370615</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.269174602471935</v>
+        <v>5.269174602471821</v>
       </c>
       <c r="C9">
-        <v>1.008636613793328</v>
+        <v>1.008636613793072</v>
       </c>
       <c r="D9">
-        <v>0.07007261070135939</v>
+        <v>0.07007261070146598</v>
       </c>
       <c r="E9">
-        <v>0.03522754401410655</v>
+        <v>0.03522754401410477</v>
       </c>
       <c r="F9">
-        <v>3.180786993720204</v>
+        <v>3.180786993720147</v>
       </c>
       <c r="G9">
-        <v>0.0007830462632989723</v>
+        <v>0.0007830462632318253</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.18139791281736</v>
+        <v>0.1813979128173528</v>
       </c>
       <c r="M9">
-        <v>0.8015397258698584</v>
+        <v>0.8015397258698655</v>
       </c>
       <c r="N9">
-        <v>1.385001970838601</v>
+        <v>1.385001970838587</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>1.221597464858348</v>
       </c>
       <c r="D10">
-        <v>0.0700000496468931</v>
+        <v>0.07000004964732653</v>
       </c>
       <c r="E10">
-        <v>0.03828964825421721</v>
+        <v>0.03828964825417991</v>
       </c>
       <c r="F10">
-        <v>3.706974698408942</v>
+        <v>3.706974698408885</v>
       </c>
       <c r="G10">
-        <v>0.0007660826296928849</v>
+        <v>0.0007660826297472053</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.210670411071419</v>
+        <v>0.210670411071348</v>
       </c>
       <c r="M10">
         <v>0.9601563734310616</v>
       </c>
       <c r="N10">
-        <v>1.361186565743878</v>
+        <v>1.361186565743836</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.84358273122831</v>
+        <v>6.843582731228139</v>
       </c>
       <c r="C11">
-        <v>1.321703231581978</v>
+        <v>1.321703231582262</v>
       </c>
       <c r="D11">
-        <v>0.07022244917735776</v>
+        <v>0.07022244917734355</v>
       </c>
       <c r="E11">
         <v>0.03973453558193718</v>
@@ -859,7 +859,7 @@
         <v>3.959512251215699</v>
       </c>
       <c r="G11">
-        <v>0.0007584230175925782</v>
+        <v>0.0007584230175353301</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2245510729913889</v>
+        <v>0.2245510729915452</v>
       </c>
       <c r="M11">
-        <v>1.03496340849351</v>
+        <v>1.034963408493518</v>
       </c>
       <c r="N11">
-        <v>1.354179466633241</v>
+        <v>1.354179466633184</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.037515437768377</v>
+        <v>7.037515437768548</v>
       </c>
       <c r="C12">
-        <v>1.36017288306499</v>
+        <v>1.360172883064763</v>
       </c>
       <c r="D12">
-        <v>0.07034889482338968</v>
+        <v>0.07034889482362416</v>
       </c>
       <c r="E12">
-        <v>0.04029105957745038</v>
+        <v>0.04029105957745394</v>
       </c>
       <c r="F12">
-        <v>4.05736120934958</v>
+        <v>4.057361209349608</v>
       </c>
       <c r="G12">
-        <v>0.000755526200318543</v>
+        <v>0.0007555262003200551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2299017249761022</v>
+        <v>0.2299017249762159</v>
       </c>
       <c r="M12">
-        <v>1.063742077066699</v>
+        <v>1.063742077066713</v>
       </c>
       <c r="N12">
-        <v>1.352148911883162</v>
+        <v>1.35214891188312</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995607836681017</v>
+        <v>6.995607836681074</v>
       </c>
       <c r="C13">
-        <v>1.351861047757552</v>
+        <v>1.351861047757609</v>
       </c>
       <c r="D13">
-        <v>0.07031968644853492</v>
+        <v>0.07031968644855624</v>
       </c>
       <c r="E13">
-        <v>0.04017075093215006</v>
+        <v>0.04017075093212163</v>
       </c>
       <c r="F13">
-        <v>4.036183303777364</v>
+        <v>4.036183303777335</v>
       </c>
       <c r="G13">
-        <v>0.0007561499961200635</v>
+        <v>0.0007561499961802376</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2287449389847325</v>
+        <v>0.2287449389847893</v>
       </c>
       <c r="M13">
-        <v>1.05752279881743</v>
+        <v>1.057522798817438</v>
       </c>
       <c r="N13">
-        <v>1.352557243804569</v>
+        <v>1.352557243804611</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.859475052518974</v>
+        <v>6.859475052519088</v>
       </c>
       <c r="C14">
-        <v>1.324856279521384</v>
+        <v>1.324856279520588</v>
       </c>
       <c r="D14">
-        <v>0.07023197069578657</v>
+        <v>0.07023197069599263</v>
       </c>
       <c r="E14">
-        <v>0.03978012102748174</v>
+        <v>0.03978012102747108</v>
       </c>
       <c r="F14">
-        <v>3.967515842702056</v>
+        <v>3.967515842702113</v>
       </c>
       <c r="G14">
-        <v>0.0007581846486656323</v>
+        <v>0.000758184648588109</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.224989300932819</v>
+        <v>0.2249893009328758</v>
       </c>
       <c r="M14">
-        <v>1.037321573676032</v>
+        <v>1.037321573676046</v>
       </c>
       <c r="N14">
-        <v>1.353999470817996</v>
+        <v>1.353999470818067</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.776492828051119</v>
+        <v>6.776492828050948</v>
       </c>
       <c r="C15">
-        <v>1.308391399217669</v>
+        <v>1.308391399217271</v>
       </c>
       <c r="D15">
-        <v>0.07018392109323912</v>
+        <v>0.07018392109324623</v>
       </c>
       <c r="E15">
-        <v>0.03954213269517659</v>
+        <v>0.03954213269518014</v>
       </c>
       <c r="F15">
-        <v>3.925754440994098</v>
+        <v>3.925754440994126</v>
       </c>
       <c r="G15">
-        <v>0.0007594312694804231</v>
+        <v>0.0007594312695388623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2227015757029847</v>
+        <v>0.2227015757029989</v>
       </c>
       <c r="M15">
-        <v>1.025008704752686</v>
+        <v>1.025008704752672</v>
       </c>
       <c r="N15">
-        <v>1.354966346169064</v>
+        <v>1.354966346169007</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.306752235473027</v>
+        <v>6.306752235473255</v>
       </c>
       <c r="C16">
-        <v>1.215128273961113</v>
+        <v>1.215128273960602</v>
       </c>
       <c r="D16">
-        <v>0.06999110388111518</v>
+        <v>0.06999110388120044</v>
       </c>
       <c r="E16">
-        <v>0.03819642183484717</v>
+        <v>0.0381964218348454</v>
       </c>
       <c r="F16">
         <v>3.690762434617625</v>
       </c>
       <c r="G16">
-        <v>0.0007665839840411692</v>
+        <v>0.0007665839841682423</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2097757182516347</v>
+        <v>0.2097757182515778</v>
       </c>
       <c r="M16">
-        <v>0.9553266233190811</v>
+        <v>0.9553266233191025</v>
       </c>
       <c r="N16">
         <v>1.361727449852836</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.023363155410777</v>
+        <v>6.023363155410891</v>
       </c>
       <c r="C17">
-        <v>1.158805987344863</v>
+        <v>1.15880598734509</v>
       </c>
       <c r="D17">
-        <v>0.06994186124497048</v>
+        <v>0.0699418612448639</v>
       </c>
       <c r="E17">
-        <v>0.03738542491478292</v>
+        <v>0.03738542491471364</v>
       </c>
       <c r="F17">
-        <v>3.550191707433498</v>
+        <v>3.55019170743347</v>
       </c>
       <c r="G17">
-        <v>0.0007709835933031354</v>
+        <v>0.0007709835932916107</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.201999477557095</v>
+        <v>0.2019994775570524</v>
       </c>
       <c r="M17">
-        <v>0.9133043264260436</v>
+        <v>0.9133043264260365</v>
       </c>
       <c r="N17">
-        <v>1.366903469480846</v>
+        <v>1.36690346948086</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>1.126708145127111</v>
       </c>
       <c r="D18">
-        <v>0.06993719913590013</v>
+        <v>0.06993719913567276</v>
       </c>
       <c r="E18">
-        <v>0.03692371540231676</v>
+        <v>0.03692371540230255</v>
       </c>
       <c r="F18">
         <v>3.470556869865675</v>
       </c>
       <c r="G18">
-        <v>0.0007735198258424883</v>
+        <v>0.0007735198258473733</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0.1975790249979639</v>
       </c>
       <c r="M18">
-        <v>0.8893790524297316</v>
+        <v>0.8893790524296818</v>
       </c>
       <c r="N18">
         <v>1.370235804753023</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.807596544762077</v>
+        <v>5.807596544762362</v>
       </c>
       <c r="C19">
-        <v>1.115888694742296</v>
+        <v>1.115888694742864</v>
       </c>
       <c r="D19">
-        <v>0.06993953166604427</v>
+        <v>0.06993953166606559</v>
       </c>
       <c r="E19">
-        <v>0.03676815229825259</v>
+        <v>0.03676815229825792</v>
       </c>
       <c r="F19">
         <v>3.443793936688593</v>
       </c>
       <c r="G19">
-        <v>0.0007743796554051058</v>
+        <v>0.0007743796553366399</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1960909364979102</v>
+        <v>0.1960909364979386</v>
       </c>
       <c r="M19">
-        <v>0.8813184648060925</v>
+        <v>0.8813184648060783</v>
       </c>
       <c r="N19">
         <v>1.371423054121934</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.053360532724071</v>
+        <v>6.053360532723843</v>
       </c>
       <c r="C20">
-        <v>1.164770169541839</v>
+        <v>1.164770169541612</v>
       </c>
       <c r="D20">
-        <v>0.0699446174974625</v>
+        <v>0.06994461749744829</v>
       </c>
       <c r="E20">
-        <v>0.03747125209457458</v>
+        <v>0.0374712520945728</v>
       </c>
       <c r="F20">
         <v>3.565027478998871</v>
       </c>
       <c r="G20">
-        <v>0.0007705146887735683</v>
+        <v>0.0007705146887030463</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2028217761498325</v>
+        <v>0.2028217761498894</v>
       </c>
       <c r="M20">
         <v>0.9177518609701849</v>
@@ -1317,19 +1317,19 @@
         <v>6.899375616219231</v>
       </c>
       <c r="C21">
-        <v>1.332772132792854</v>
+        <v>1.332772132792797</v>
       </c>
       <c r="D21">
-        <v>0.07025654027329864</v>
+        <v>0.07025654027360417</v>
       </c>
       <c r="E21">
-        <v>0.03989458704626259</v>
+        <v>0.03989458704626436</v>
       </c>
       <c r="F21">
         <v>3.987622093323751</v>
       </c>
       <c r="G21">
-        <v>0.0007575869606336097</v>
+        <v>0.0007575869606344979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.226089747419195</v>
+        <v>0.2260897474191381</v>
       </c>
       <c r="M21">
-        <v>1.043242318426749</v>
+        <v>1.043242318426721</v>
       </c>
       <c r="N21">
         <v>1.35355831244928</v>
@@ -1364,19 +1364,19 @@
         <v>7.469929257573597</v>
       </c>
       <c r="C22">
-        <v>1.445902839982068</v>
+        <v>1.445902839982011</v>
       </c>
       <c r="D22">
-        <v>0.07070982238253265</v>
+        <v>0.07070982238236923</v>
       </c>
       <c r="E22">
-        <v>0.04153418652191654</v>
+        <v>0.04153418652194141</v>
       </c>
       <c r="F22">
-        <v>4.27693238030821</v>
+        <v>4.276932380308239</v>
       </c>
       <c r="G22">
-        <v>0.000749156951115115</v>
+        <v>0.0007491569510734059</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2418542599185827</v>
+        <v>0.2418542599186111</v>
       </c>
       <c r="M22">
-        <v>1.127926105108273</v>
+        <v>1.12792610510828</v>
       </c>
       <c r="N22">
-        <v>1.348894112349285</v>
+        <v>1.348894112349342</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.163625715609328</v>
+        <v>7.163625715609442</v>
       </c>
       <c r="C23">
-        <v>1.385181499437351</v>
+        <v>1.385181499437977</v>
       </c>
       <c r="D23">
-        <v>0.07044299618419814</v>
+        <v>0.07044299618408445</v>
       </c>
       <c r="E23">
-        <v>0.04065326758193955</v>
+        <v>0.0406532675819502</v>
       </c>
       <c r="F23">
         <v>4.121200518518634</v>
       </c>
       <c r="G23">
-        <v>0.0007536561482047301</v>
+        <v>0.0007536561481907148</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2333845346228287</v>
+        <v>0.2333845346228145</v>
       </c>
       <c r="M23">
-        <v>1.082458681069816</v>
+        <v>1.082458681069845</v>
       </c>
       <c r="N23">
         <v>1.351020241459594</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.03979396554621</v>
+        <v>6.039793965546153</v>
       </c>
       <c r="C24">
         <v>1.162072889709918</v>
       </c>
       <c r="D24">
-        <v>0.06994329814050815</v>
+        <v>0.06994329814038736</v>
       </c>
       <c r="E24">
-        <v>0.03743243561395992</v>
+        <v>0.03743243561399368</v>
       </c>
       <c r="F24">
-        <v>3.558316571504179</v>
+        <v>3.55831657150415</v>
       </c>
       <c r="G24">
-        <v>0.0007707266589320668</v>
+        <v>0.0007707266588067548</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2024498595263822</v>
+        <v>0.2024498595263537</v>
       </c>
       <c r="M24">
         <v>0.915740407156207</v>
       </c>
       <c r="N24">
-        <v>1.366580061538116</v>
+        <v>1.366580061538073</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.887804581544344</v>
+        <v>4.887804581544287</v>
       </c>
       <c r="C25">
-        <v>0.9325047320940882</v>
+        <v>0.9325047320940314</v>
       </c>
       <c r="D25">
-        <v>0.070293978986669</v>
+        <v>0.07029397898642031</v>
       </c>
       <c r="E25">
         <v>0.03413495551675361</v>
       </c>
       <c r="F25">
-        <v>2.99678953893752</v>
+        <v>2.996789538937492</v>
       </c>
       <c r="G25">
-        <v>0.0007893706338477379</v>
+        <v>0.0007893706337893668</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1710407776067271</v>
+        <v>0.171040777606855</v>
       </c>
       <c r="M25">
-        <v>0.7450696476406051</v>
+        <v>0.745069647640598</v>
       </c>
       <c r="N25">
-        <v>1.396740402157519</v>
+        <v>1.396740402157434</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.076978312594576</v>
+        <v>2.430795783293661</v>
       </c>
       <c r="C2">
-        <v>0.7700349914478863</v>
+        <v>0.5864501562341502</v>
       </c>
       <c r="D2">
-        <v>0.07115402107620739</v>
+        <v>0.03267616306187193</v>
       </c>
       <c r="E2">
-        <v>0.03180239946287777</v>
+        <v>0.03973617496847126</v>
       </c>
       <c r="F2">
-        <v>2.61265009277426</v>
+        <v>0.9103740264954894</v>
       </c>
       <c r="G2">
-        <v>0.0008034370034060156</v>
+        <v>0.8405382504673184</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005067588421594493</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5480487217314476</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5052309188096373</v>
       </c>
       <c r="L2">
-        <v>0.1491907494677207</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6251400768952138</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.428260316246664</v>
+        <v>0.1610784275467907</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4191609125609972</v>
+      </c>
+      <c r="P2">
+        <v>0.7993476088561877</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.544854329360703</v>
+        <v>2.114494963643608</v>
       </c>
       <c r="C3">
-        <v>0.6628042633256541</v>
+        <v>0.5173597527705454</v>
       </c>
       <c r="D3">
-        <v>0.07204685823679924</v>
+        <v>0.03136597959167986</v>
       </c>
       <c r="E3">
-        <v>0.03025866439591596</v>
+        <v>0.04006751338313741</v>
       </c>
       <c r="F3">
-        <v>2.36651660800166</v>
+        <v>0.8352117977269984</v>
       </c>
       <c r="G3">
-        <v>0.0008132395278117255</v>
+        <v>0.770882874029212</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005386623851264538</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5214221999237765</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4893699838330861</v>
       </c>
       <c r="L3">
-        <v>0.135009788198893</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5465565771528915</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.454535153336565</v>
+        <v>0.1459701946277576</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3661678909350385</v>
+      </c>
+      <c r="P3">
+        <v>0.8353689509119828</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.225022152181509</v>
+        <v>1.920255471561518</v>
       </c>
       <c r="C4">
-        <v>0.5980410278210684</v>
+        <v>0.4752231042193671</v>
       </c>
       <c r="D4">
-        <v>0.07272978340934344</v>
+        <v>0.03056154128715249</v>
       </c>
       <c r="E4">
-        <v>0.02932292107155998</v>
+        <v>0.04028460935920175</v>
       </c>
       <c r="F4">
-        <v>2.221239529399185</v>
+        <v>0.7900998693650365</v>
       </c>
       <c r="G4">
-        <v>0.0008194078967336192</v>
+        <v>0.7290920904270166</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0009597238838892075</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5056795546197748</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4801456985756616</v>
       </c>
       <c r="L4">
-        <v>0.1265637865490774</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4993846699685349</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.472838546790214</v>
+        <v>0.1369340914536394</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3337429702872612</v>
+      </c>
+      <c r="P4">
+        <v>0.8583502236897065</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.096198543938158</v>
+        <v>1.839767573807933</v>
       </c>
       <c r="C5">
-        <v>0.5718749828777447</v>
+        <v>0.4585746407614693</v>
       </c>
       <c r="D5">
-        <v>0.07303955053073707</v>
+        <v>0.0302641918285147</v>
       </c>
       <c r="E5">
-        <v>0.02894383920310251</v>
+        <v>0.04037501248662467</v>
       </c>
       <c r="F5">
-        <v>2.163355089392397</v>
+        <v>0.7711650471639686</v>
       </c>
       <c r="G5">
-        <v>0.0008219613841753511</v>
+        <v>0.7113980450554465</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001297396836148046</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4989582300905795</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4759178238380599</v>
       </c>
       <c r="L5">
-        <v>0.1231812332206275</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4803997413853622</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.480809209708539</v>
+        <v>0.1333716542797703</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3204190078361933</v>
+      </c>
+      <c r="P5">
+        <v>0.8679453541577935</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.074892586234284</v>
+        <v>1.824805083000001</v>
       </c>
       <c r="C6">
-        <v>0.5675425076618126</v>
+        <v>0.4563813880742771</v>
       </c>
       <c r="D6">
-        <v>0.07309282211920376</v>
+        <v>0.03025237386178503</v>
       </c>
       <c r="E6">
-        <v>0.02888100639451618</v>
+        <v>0.04038850779222658</v>
       </c>
       <c r="F6">
-        <v>2.153818743001267</v>
+        <v>0.7670669628687108</v>
       </c>
       <c r="G6">
-        <v>0.000822387855291014</v>
+        <v>0.7073860053135519</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001453222736693682</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4973015120045545</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4745015510395305</v>
       </c>
       <c r="L6">
-        <v>0.1226229653627371</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4772607690717408</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.482162716819531</v>
+        <v>0.1328607319904407</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3180441147682274</v>
+      </c>
+      <c r="P6">
+        <v>0.8695770707940262</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.223278955423837</v>
+        <v>1.91479506410775</v>
       </c>
       <c r="C7">
-        <v>0.5976872870923842</v>
+        <v>0.4765545632427006</v>
       </c>
       <c r="D7">
-        <v>0.07273383661808808</v>
+        <v>0.03066074685207809</v>
       </c>
       <c r="E7">
-        <v>0.02931780056832078</v>
+        <v>0.04028140675556635</v>
       </c>
       <c r="F7">
-        <v>2.22045373960249</v>
+        <v>0.787195042528424</v>
       </c>
       <c r="G7">
-        <v>0.0008194421699758477</v>
+        <v>0.725877979219149</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001203324398882266</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5040872094016606</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4781161060223482</v>
       </c>
       <c r="L7">
-        <v>0.1265179363658646</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.499127710627512</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.472944011861003</v>
+        <v>0.1370971155183653</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3331140112290569</v>
+      </c>
+      <c r="P7">
+        <v>0.8585651697873509</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.891930091107042</v>
+        <v>2.315858810692191</v>
       </c>
       <c r="C8">
-        <v>0.7328096508501005</v>
+        <v>0.564643544558578</v>
       </c>
       <c r="D8">
-        <v>0.07143238071422076</v>
+        <v>0.03236408772265875</v>
       </c>
       <c r="E8">
-        <v>0.03126709112984649</v>
+        <v>0.03984294861390758</v>
       </c>
       <c r="F8">
-        <v>2.526471872442357</v>
+        <v>0.8807047237289538</v>
       </c>
       <c r="G8">
-        <v>0.0008067872645824552</v>
+        <v>0.8123462367869081</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007073587500618927</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5367435529933573</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4970357711267681</v>
       </c>
       <c r="L8">
-        <v>0.1442429011156534</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5977995954280715</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.436847941370615</v>
+        <v>0.1560975015502777</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4002588670779161</v>
+      </c>
+      <c r="P8">
+        <v>0.8117717311193644</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.269174602471821</v>
+        <v>3.111232699988648</v>
       </c>
       <c r="C9">
-        <v>1.008636613793072</v>
+        <v>0.7374299089669876</v>
       </c>
       <c r="D9">
-        <v>0.07007261070146598</v>
+        <v>0.03551946052116506</v>
       </c>
       <c r="E9">
-        <v>0.03522754401410477</v>
+        <v>0.03910049687288475</v>
       </c>
       <c r="F9">
-        <v>3.180786993720147</v>
+        <v>1.078109260898799</v>
       </c>
       <c r="G9">
-        <v>0.0007830462632318253</v>
+        <v>0.9960540998443861</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002860575546279165</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6087536318681828</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5421454272134412</v>
       </c>
       <c r="L9">
-        <v>0.1813979128173528</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8015397258698655</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.385001970838587</v>
+        <v>0.1950635592500873</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5339039818944613</v>
+      </c>
+      <c r="P9">
+        <v>0.7268820157148355</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.339317512884577</v>
+        <v>3.695669531282135</v>
       </c>
       <c r="C10">
-        <v>1.221597464858348</v>
+        <v>0.8678422624954294</v>
       </c>
       <c r="D10">
-        <v>0.07000004964732653</v>
+        <v>0.0379043642266268</v>
       </c>
       <c r="E10">
-        <v>0.03828964825417991</v>
+        <v>0.03862759058484544</v>
       </c>
       <c r="F10">
-        <v>3.706974698408885</v>
+        <v>1.228976297643769</v>
       </c>
       <c r="G10">
-        <v>0.0007660826297472053</v>
+        <v>1.13640452987903</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007081108023641036</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6648185155635247</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5776111566036448</v>
       </c>
       <c r="L10">
-        <v>0.210670411071348</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9601563734310616</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.361186565743836</v>
+        <v>0.2253355976493197</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6329558340877099</v>
+      </c>
+      <c r="P10">
+        <v>0.6694530823461413</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.843582731228139</v>
+        <v>3.954922982586538</v>
       </c>
       <c r="C11">
-        <v>1.321703231582262</v>
+        <v>0.9306330187232277</v>
       </c>
       <c r="D11">
-        <v>0.07022244917734355</v>
+        <v>0.03917946008309059</v>
       </c>
       <c r="E11">
-        <v>0.03973453558193718</v>
+        <v>0.03842821286731901</v>
       </c>
       <c r="F11">
-        <v>3.959512251215699</v>
+        <v>1.295094445996369</v>
       </c>
       <c r="G11">
-        <v>0.0007584230175353301</v>
+        <v>1.197133927309153</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00996631159764938</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6888505333961348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5913538683061361</v>
       </c>
       <c r="L11">
-        <v>0.2245510729915452</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.034963408493518</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.354179466633184</v>
+        <v>0.2398549582555916</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6775669195726053</v>
+      </c>
+      <c r="P11">
+        <v>0.6449815447279903</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.037515437768548</v>
+        <v>4.057261820528197</v>
       </c>
       <c r="C12">
-        <v>1.360172883064763</v>
+        <v>0.953137362994795</v>
       </c>
       <c r="D12">
-        <v>0.07034889482362416</v>
+        <v>0.03956552847374795</v>
       </c>
       <c r="E12">
-        <v>0.04029105957745394</v>
+        <v>0.0383564559562446</v>
       </c>
       <c r="F12">
-        <v>4.057361209349608</v>
+        <v>1.322793931568967</v>
       </c>
       <c r="G12">
-        <v>0.0007555262003200551</v>
+        <v>1.22307162528142</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01099180732078242</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6994333728295601</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5984191380608124</v>
       </c>
       <c r="L12">
-        <v>0.2299017249762159</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.063742077066713</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.35214891188312</v>
+        <v>0.2452297888546866</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6949292454864775</v>
+      </c>
+      <c r="P12">
+        <v>0.6356460332411267</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995607836681074</v>
+        <v>4.036020101687427</v>
       </c>
       <c r="C13">
-        <v>1.351861047757609</v>
+        <v>0.9479997360130881</v>
       </c>
       <c r="D13">
-        <v>0.07031968644855624</v>
+        <v>0.03946250568853316</v>
       </c>
       <c r="E13">
-        <v>0.04017075093212163</v>
+        <v>0.03837196815288602</v>
       </c>
       <c r="F13">
-        <v>4.036183303777335</v>
+        <v>1.317288325878195</v>
       </c>
       <c r="G13">
-        <v>0.0007561499961802376</v>
+        <v>1.218003714841387</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01073004849190262</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6974128673633686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.597238425951204</v>
       </c>
       <c r="L13">
-        <v>0.2287449389847893</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.057522798817438</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.352557243804611</v>
+        <v>0.2440318356511</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6912708782939347</v>
+      </c>
+      <c r="P13">
+        <v>0.6375957394757492</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.859475052519088</v>
+        <v>3.963681153914933</v>
       </c>
       <c r="C14">
-        <v>1.324856279520588</v>
+        <v>0.9323608224577811</v>
       </c>
       <c r="D14">
-        <v>0.07023197069599263</v>
+        <v>0.03920278837850688</v>
       </c>
       <c r="E14">
-        <v>0.03978012102747108</v>
+        <v>0.03842233514106264</v>
       </c>
       <c r="F14">
-        <v>3.967515842702113</v>
+        <v>1.297568219519192</v>
       </c>
       <c r="G14">
-        <v>0.000758184648588109</v>
+        <v>1.199487496547391</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01003281267190825</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6898308513750635</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5920797304467413</v>
       </c>
       <c r="L14">
-        <v>0.2249893009328758</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.037321573676046</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.353999470818067</v>
+        <v>0.2402799270306986</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6790295909438768</v>
+      </c>
+      <c r="P14">
+        <v>0.6441877162880871</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.776492828050948</v>
+        <v>3.917810457388669</v>
       </c>
       <c r="C15">
-        <v>1.308391399217271</v>
+        <v>0.9233595321371979</v>
       </c>
       <c r="D15">
-        <v>0.07018392109324623</v>
+        <v>0.03908280438442446</v>
       </c>
       <c r="E15">
-        <v>0.03954213269518014</v>
+        <v>0.03845315062846733</v>
       </c>
       <c r="F15">
-        <v>3.925754440994126</v>
+        <v>1.284598134141987</v>
       </c>
       <c r="G15">
-        <v>0.0007594312695388623</v>
+        <v>1.187139983656664</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.009695601116095354</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6846848121465428</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5882553503370573</v>
       </c>
       <c r="L15">
-        <v>0.2227015757029989</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.025008704752672</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.354966346169007</v>
+        <v>0.2380639666233861</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6713750347650134</v>
+      </c>
+      <c r="P15">
+        <v>0.648350807063828</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.306752235473255</v>
+        <v>3.665439680482677</v>
       </c>
       <c r="C16">
-        <v>1.215128273960602</v>
+        <v>0.8684572273031392</v>
       </c>
       <c r="D16">
-        <v>0.06999110388120044</v>
+        <v>0.03814692453179802</v>
       </c>
       <c r="E16">
-        <v>0.0381964218348454</v>
+        <v>0.03863706835285985</v>
       </c>
       <c r="F16">
-        <v>3.690762434617625</v>
+        <v>1.216849973646546</v>
       </c>
       <c r="G16">
-        <v>0.0007665839841682423</v>
+        <v>1.123670025822804</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007503935193906131</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6588618733882186</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.570975826130713</v>
       </c>
       <c r="L16">
-        <v>0.2097757182515778</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9553266233191025</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.361727449852836</v>
+        <v>0.2250167035332851</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6286717359378784</v>
+      </c>
+      <c r="P16">
+        <v>0.6718855989711123</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.023363155410891</v>
+        <v>3.510957604265911</v>
       </c>
       <c r="C17">
-        <v>1.15880598734509</v>
+        <v>0.8349728488504695</v>
       </c>
       <c r="D17">
-        <v>0.0699418612448639</v>
+        <v>0.03757236600651837</v>
       </c>
       <c r="E17">
-        <v>0.03738542491471364</v>
+        <v>0.03875430072604114</v>
       </c>
       <c r="F17">
-        <v>3.55019170743347</v>
+        <v>1.175843077559207</v>
       </c>
       <c r="G17">
-        <v>0.0007709835932916107</v>
+        <v>1.08527653334562</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006340935732399799</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6433122802660307</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5606311454779416</v>
       </c>
       <c r="L17">
-        <v>0.2019994775570524</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9133043264260365</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.36690346948086</v>
+        <v>0.2171155932067705</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6025734473801663</v>
+      </c>
+      <c r="P17">
+        <v>0.6866145578383822</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.86197597559277</v>
+        <v>3.426221733763782</v>
       </c>
       <c r="C18">
-        <v>1.126708145127111</v>
+        <v>0.8143580554905157</v>
       </c>
       <c r="D18">
-        <v>0.06993719913567276</v>
+        <v>0.03714315208464569</v>
       </c>
       <c r="E18">
-        <v>0.03692371540230255</v>
+        <v>0.03882462459141633</v>
       </c>
       <c r="F18">
-        <v>3.470556869865675</v>
+        <v>1.15481644394275</v>
       </c>
       <c r="G18">
-        <v>0.0007735198258473733</v>
+        <v>1.066037325855987</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005512943046798391</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6358011154063803</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5565064332544054</v>
       </c>
       <c r="L18">
-        <v>0.1975790249979639</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8893790524296818</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.370235804753023</v>
+        <v>0.2124189229118798</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.588009987439392</v>
+      </c>
+      <c r="P18">
+        <v>0.6949516940451979</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.807596544762362</v>
+        <v>3.394458274732187</v>
       </c>
       <c r="C19">
-        <v>1.115888694742864</v>
+        <v>0.8084856126741045</v>
       </c>
       <c r="D19">
-        <v>0.06993953166606559</v>
+        <v>0.03707379169031455</v>
       </c>
       <c r="E19">
-        <v>0.03676815229825792</v>
+        <v>0.03884769227358209</v>
       </c>
       <c r="F19">
-        <v>3.443793936688593</v>
+        <v>1.145903307435759</v>
       </c>
       <c r="G19">
-        <v>0.0007743796553366399</v>
+        <v>1.057506000029193</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005411522322113171</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6322486808456063</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5537856074891891</v>
       </c>
       <c r="L19">
-        <v>0.1960909364979386</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8813184648060783</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.371423054121934</v>
+        <v>0.2109799460766624</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5827651104322911</v>
+      </c>
+      <c r="P19">
+        <v>0.6979761422534381</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.053360532723843</v>
+        <v>3.527705633396749</v>
       </c>
       <c r="C20">
-        <v>1.164770169541612</v>
+        <v>0.8384185747209472</v>
       </c>
       <c r="D20">
-        <v>0.06994461749744829</v>
+        <v>0.0376257845925565</v>
       </c>
       <c r="E20">
-        <v>0.0374712520945728</v>
+        <v>0.0387417517715265</v>
       </c>
       <c r="F20">
-        <v>3.565027478998871</v>
+        <v>1.18037402000293</v>
       </c>
       <c r="G20">
-        <v>0.0007705146887030463</v>
+        <v>1.089552349661773</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00644045196444587</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6450613190133083</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5618592095752248</v>
       </c>
       <c r="L20">
-        <v>0.2028217761498894</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9177518609701849</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.366315218623569</v>
+        <v>0.2179381224092367</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6053806829956159</v>
+      </c>
+      <c r="P20">
+        <v>0.6850165206439662</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.899375616219231</v>
+        <v>3.980400663415082</v>
       </c>
       <c r="C21">
-        <v>1.332772132792797</v>
+        <v>0.9385471948989448</v>
       </c>
       <c r="D21">
-        <v>0.07025654027360417</v>
+        <v>0.03939043373741313</v>
       </c>
       <c r="E21">
-        <v>0.03989458704626436</v>
+        <v>0.03840648733185836</v>
       </c>
       <c r="F21">
-        <v>3.987622093323751</v>
+        <v>1.300693488219949</v>
       </c>
       <c r="G21">
-        <v>0.0007575869606344979</v>
+        <v>1.201935340457879</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01045059344369648</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6905617327837774</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5916459131613294</v>
       </c>
       <c r="L21">
-        <v>0.2260897474191381</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.043242318426721</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.35355831244928</v>
+        <v>0.2415906187178791</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6821552780940365</v>
+      </c>
+      <c r="P21">
+        <v>0.6425443892868827</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.469929257573597</v>
+        <v>4.283281306981735</v>
       </c>
       <c r="C22">
-        <v>1.445902839982011</v>
+        <v>1.002678917913016</v>
       </c>
       <c r="D22">
-        <v>0.07070982238236923</v>
+        <v>0.04040117690333389</v>
       </c>
       <c r="E22">
-        <v>0.04153418652194141</v>
+        <v>0.03820352834662177</v>
       </c>
       <c r="F22">
-        <v>4.276932380308239</v>
+        <v>1.384659393728356</v>
       </c>
       <c r="G22">
-        <v>0.0007491569510734059</v>
+        <v>1.281090504460451</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01342276990732483</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7232131962516064</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6144754093433704</v>
       </c>
       <c r="L22">
-        <v>0.2418542599186111</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.12792610510828</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.348894112349342</v>
+        <v>0.2571410252809727</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.733284967154745</v>
+      </c>
+      <c r="P22">
+        <v>0.6153978158693256</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.163625715609442</v>
+        <v>4.126959759718829</v>
       </c>
       <c r="C23">
-        <v>1.385181499437977</v>
+        <v>0.966453236130377</v>
       </c>
       <c r="D23">
-        <v>0.07044299618408445</v>
+        <v>0.0397275316233312</v>
       </c>
       <c r="E23">
-        <v>0.0406532675819502</v>
+        <v>0.03831158172619054</v>
       </c>
       <c r="F23">
-        <v>4.121200518518634</v>
+        <v>1.342862693141015</v>
       </c>
       <c r="G23">
-        <v>0.0007536561481907148</v>
+        <v>1.242255947791193</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01153457500328159</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7074874749934281</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.604552414416986</v>
       </c>
       <c r="L23">
-        <v>0.2333845346228145</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.082458681069845</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.351020241459594</v>
+        <v>0.2485531289002694</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7065259168117848</v>
+      </c>
+      <c r="P23">
+        <v>0.6294315657455876</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.039793965546153</v>
+        <v>3.528632451458975</v>
       </c>
       <c r="C24">
-        <v>1.162072889709918</v>
+        <v>0.8338511073366419</v>
       </c>
       <c r="D24">
-        <v>0.06994329814038736</v>
+        <v>0.03739313659995602</v>
       </c>
       <c r="E24">
-        <v>0.03743243561399368</v>
+        <v>0.03875012140973944</v>
       </c>
       <c r="F24">
-        <v>3.55831657150415</v>
+        <v>1.183342176224386</v>
       </c>
       <c r="G24">
-        <v>0.0007707266588067548</v>
+        <v>1.093248314447067</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005967026169017231</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6470898274982773</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5649841157632878</v>
       </c>
       <c r="L24">
-        <v>0.2024498595263537</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.915740407156207</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.366580061538073</v>
+        <v>0.217167823982507</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6049898201186252</v>
+      </c>
+      <c r="P24">
+        <v>0.6852307583968695</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.887804581544287</v>
+        <v>2.887638041843161</v>
       </c>
       <c r="C25">
-        <v>0.9325047320940314</v>
+        <v>0.6931775889928815</v>
       </c>
       <c r="D25">
-        <v>0.07029397898642031</v>
+        <v>0.03486164325079955</v>
       </c>
       <c r="E25">
-        <v>0.03413495551675361</v>
+        <v>0.03928467757987897</v>
       </c>
       <c r="F25">
-        <v>2.996789538937492</v>
+        <v>1.018715007349726</v>
       </c>
       <c r="G25">
-        <v>0.0007893706337893668</v>
+        <v>0.9398213513605924</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002241111125850459</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5859075366815887</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.525830375654941</v>
       </c>
       <c r="L25">
-        <v>0.171040777606855</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.745069647640598</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.396740402157434</v>
+        <v>0.1846578244884469</v>
       </c>
       <c r="O25">
+        <v>0.4967467824297955</v>
+      </c>
+      <c r="P25">
+        <v>0.749423456869005</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.430795783293661</v>
+        <v>2.299465720870444</v>
       </c>
       <c r="C2">
-        <v>0.5864501562341502</v>
+        <v>0.6221156253434685</v>
       </c>
       <c r="D2">
-        <v>0.03267616306187193</v>
+        <v>0.03562007352609697</v>
       </c>
       <c r="E2">
-        <v>0.03973617496847126</v>
+        <v>0.03794934610375411</v>
       </c>
       <c r="F2">
-        <v>0.9103740264954894</v>
+        <v>0.8265558325650488</v>
       </c>
       <c r="G2">
-        <v>0.8405382504673184</v>
+        <v>0.7247134208318897</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005067588421594493</v>
+        <v>0.0006748020174551783</v>
       </c>
       <c r="J2">
-        <v>0.5480487217314476</v>
+        <v>0.5430795030153917</v>
       </c>
       <c r="K2">
-        <v>0.5052309188096373</v>
+        <v>0.4371947101882085</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2166408263604325</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1212119281773028</v>
       </c>
       <c r="N2">
-        <v>0.1610784275467907</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4191609125609972</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7993476088561877</v>
+        <v>0.1688804057697197</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.405386458071888</v>
+      </c>
+      <c r="R2">
+        <v>0.7937046400750809</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.114494963643608</v>
+        <v>2.007236208964173</v>
       </c>
       <c r="C3">
-        <v>0.5173597527705454</v>
+        <v>0.5444099036167245</v>
       </c>
       <c r="D3">
-        <v>0.03136597959167986</v>
+        <v>0.0333279853999251</v>
       </c>
       <c r="E3">
-        <v>0.04006751338313741</v>
+        <v>0.03826218296903061</v>
       </c>
       <c r="F3">
-        <v>0.8352117977269984</v>
+        <v>0.762938288493558</v>
       </c>
       <c r="G3">
-        <v>0.770882874029212</v>
+        <v>0.6687189359285526</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005386623851264538</v>
+        <v>0.000526118664338604</v>
       </c>
       <c r="J3">
-        <v>0.5214221999237765</v>
+        <v>0.5186361009471341</v>
       </c>
       <c r="K3">
-        <v>0.4893699838330861</v>
+        <v>0.428108248195791</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2187852018146081</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1129345749354975</v>
       </c>
       <c r="N3">
-        <v>0.1459701946277576</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3661678909350385</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8353689509119828</v>
+        <v>0.1528299556101729</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3547744963561925</v>
+      </c>
+      <c r="R3">
+        <v>0.8224960406448112</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.920255471561518</v>
+        <v>1.827222723902935</v>
       </c>
       <c r="C4">
-        <v>0.4752231042193671</v>
+        <v>0.497087726823338</v>
       </c>
       <c r="D4">
-        <v>0.03056154128715249</v>
+        <v>0.03192925681986836</v>
       </c>
       <c r="E4">
-        <v>0.04028460935920175</v>
+        <v>0.03847032196628164</v>
       </c>
       <c r="F4">
-        <v>0.7900998693650365</v>
+        <v>0.7245679423631017</v>
       </c>
       <c r="G4">
-        <v>0.7290920904270166</v>
+        <v>0.6351806925119092</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0009597238838892075</v>
+        <v>0.0007429611058413776</v>
       </c>
       <c r="J4">
-        <v>0.5056795546197748</v>
+        <v>0.5037711512219545</v>
       </c>
       <c r="K4">
-        <v>0.4801456985756616</v>
+        <v>0.4228275222018887</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2200359877311229</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1086730304994141</v>
       </c>
       <c r="N4">
-        <v>0.1369340914536394</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3337429702872612</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8583502236897065</v>
+        <v>0.1432296276121079</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3237303508092211</v>
+      </c>
+      <c r="R4">
+        <v>0.8410668786053783</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.839767573807933</v>
+        <v>1.752463439047546</v>
       </c>
       <c r="C5">
-        <v>0.4585746407614693</v>
+        <v>0.4783700737424397</v>
       </c>
       <c r="D5">
-        <v>0.0302641918285147</v>
+        <v>0.03139628796602523</v>
       </c>
       <c r="E5">
-        <v>0.04037501248662467</v>
+        <v>0.03855906745667248</v>
       </c>
       <c r="F5">
-        <v>0.7711650471639686</v>
+        <v>0.7083500228448969</v>
       </c>
       <c r="G5">
-        <v>0.7113980450554465</v>
+        <v>0.6208913921544053</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001297396836148046</v>
+        <v>0.0009872823822583143</v>
       </c>
       <c r="J5">
-        <v>0.4989582300905795</v>
+        <v>0.4973153367266576</v>
       </c>
       <c r="K5">
-        <v>0.4759178238380599</v>
+        <v>0.4202176702863483</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2202837196416141</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1069853838090395</v>
       </c>
       <c r="N5">
-        <v>0.1333716542797703</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3204190078361933</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8679453541577935</v>
+        <v>0.1394408311865405</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3109550453691838</v>
+      </c>
+      <c r="R5">
+        <v>0.8489498866454106</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.824805083000001</v>
+        <v>1.738520378194153</v>
       </c>
       <c r="C6">
-        <v>0.4563813880742771</v>
+        <v>0.4758561893880824</v>
       </c>
       <c r="D6">
-        <v>0.03025237386178503</v>
+        <v>0.03135097758748628</v>
       </c>
       <c r="E6">
-        <v>0.04038850779222658</v>
+        <v>0.03857401751595724</v>
       </c>
       <c r="F6">
-        <v>0.7670669628687108</v>
+        <v>0.7047617585411459</v>
       </c>
       <c r="G6">
-        <v>0.7073860053135519</v>
+        <v>0.6175335921706875</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001453222736693682</v>
+        <v>0.001142249125796191</v>
       </c>
       <c r="J6">
-        <v>0.4973015120045545</v>
+        <v>0.4957190373111899</v>
       </c>
       <c r="K6">
-        <v>0.4745015510395305</v>
+        <v>0.419143929433492</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.220025200216746</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1065294394162599</v>
       </c>
       <c r="N6">
-        <v>0.1328607319904407</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3180441147682274</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8695770707940262</v>
+        <v>0.1388923442648817</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3086762262434704</v>
+      </c>
+      <c r="R6">
+        <v>0.8503930555675971</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.91479506410775</v>
+        <v>1.820252157164276</v>
       </c>
       <c r="C7">
-        <v>0.4765545632427006</v>
+        <v>0.497388492459379</v>
       </c>
       <c r="D7">
-        <v>0.03066074685207809</v>
+        <v>0.03212431508904956</v>
       </c>
       <c r="E7">
-        <v>0.04028140675556635</v>
+        <v>0.03846507456039117</v>
       </c>
       <c r="F7">
-        <v>0.787195042528424</v>
+        <v>0.7201994233717315</v>
       </c>
       <c r="G7">
-        <v>0.725877979219149</v>
+        <v>0.6359617910980973</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001203324398882266</v>
+        <v>0.001028930430546637</v>
       </c>
       <c r="J7">
-        <v>0.5040872094016606</v>
+        <v>0.4954418449515856</v>
       </c>
       <c r="K7">
-        <v>0.4781161060223482</v>
+        <v>0.4202717151729551</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2188929080369952</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1078924794044127</v>
       </c>
       <c r="N7">
-        <v>0.1370971155183653</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3331140112290569</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8585651697873509</v>
+        <v>0.1433564241182026</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3228614482858347</v>
+      </c>
+      <c r="R7">
+        <v>0.8417038455948571</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.315858810692191</v>
+        <v>2.187211308128497</v>
       </c>
       <c r="C8">
-        <v>0.564643544558578</v>
+        <v>0.5938239787436714</v>
       </c>
       <c r="D8">
-        <v>0.03236408772265875</v>
+        <v>0.03527698681780223</v>
       </c>
       <c r="E8">
-        <v>0.03984294861390758</v>
+        <v>0.03803300252772779</v>
       </c>
       <c r="F8">
-        <v>0.8807047237289538</v>
+        <v>0.795611722555094</v>
       </c>
       <c r="G8">
-        <v>0.8123462367869081</v>
+        <v>0.7139974794353918</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007073587500618927</v>
+        <v>0.000885338481354303</v>
       </c>
       <c r="J8">
-        <v>0.5367435529933573</v>
+        <v>0.5103206385279435</v>
       </c>
       <c r="K8">
-        <v>0.4970357711267681</v>
+        <v>0.429174536209743</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2153426545466139</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1165907217075137</v>
       </c>
       <c r="N8">
-        <v>0.1560975015502777</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4002588670779161</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8117717311193644</v>
+        <v>0.1634598212685887</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3864588608463961</v>
+      </c>
+      <c r="R8">
+        <v>0.8047254411237468</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.111232699988648</v>
+        <v>2.916982219149361</v>
       </c>
       <c r="C9">
-        <v>0.7374299089669876</v>
+        <v>0.7875148278277777</v>
       </c>
       <c r="D9">
-        <v>0.03551946052116506</v>
+        <v>0.04101049211103103</v>
       </c>
       <c r="E9">
-        <v>0.03910049687288475</v>
+        <v>0.03733636572709864</v>
       </c>
       <c r="F9">
-        <v>1.078109260898799</v>
+        <v>0.9602522703053751</v>
       </c>
       <c r="G9">
-        <v>0.9960540998443861</v>
+        <v>0.8660260237143689</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002860575546279165</v>
+        <v>0.002830335712605603</v>
       </c>
       <c r="J9">
-        <v>0.6087536318681828</v>
+        <v>0.5676537066049718</v>
       </c>
       <c r="K9">
-        <v>0.5421454272134412</v>
+        <v>0.4551392112464754</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2104475328421636</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1422386743253341</v>
       </c>
       <c r="N9">
-        <v>0.1950635592500873</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5339039818944613</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7268820157148355</v>
+        <v>0.2048129475453635</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5133567911869008</v>
+      </c>
+      <c r="R9">
+        <v>0.7381118409919871</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.695669531282135</v>
+        <v>3.438802824200593</v>
       </c>
       <c r="C10">
-        <v>0.8678422624954294</v>
+        <v>0.927243959414028</v>
       </c>
       <c r="D10">
-        <v>0.0379043642266268</v>
+        <v>0.04589969126993054</v>
       </c>
       <c r="E10">
-        <v>0.03862759058484544</v>
+        <v>0.03686984239434921</v>
       </c>
       <c r="F10">
-        <v>1.228976297643769</v>
+        <v>1.075021347203545</v>
       </c>
       <c r="G10">
-        <v>1.13640452987903</v>
+        <v>1.004804249373137</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007081108023641036</v>
+        <v>0.006262956939202979</v>
       </c>
       <c r="J10">
-        <v>0.6648185155635247</v>
+        <v>0.571758419635799</v>
       </c>
       <c r="K10">
-        <v>0.5776111566036448</v>
+        <v>0.4709965827437301</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2047312155885237</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1633846995171666</v>
       </c>
       <c r="N10">
-        <v>0.2253355976493197</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6329558340877099</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6694530823461413</v>
+        <v>0.2366784948445257</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6053008646189042</v>
+      </c>
+      <c r="R10">
+        <v>0.6961472636362238</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.954922982586538</v>
+        <v>3.6496193929421</v>
       </c>
       <c r="C11">
-        <v>0.9306330187232277</v>
+        <v>0.9828632401318487</v>
       </c>
       <c r="D11">
-        <v>0.03917946008309059</v>
+        <v>0.04938135483791939</v>
       </c>
       <c r="E11">
-        <v>0.03842821286731901</v>
+        <v>0.03662176795714389</v>
       </c>
       <c r="F11">
-        <v>1.295094445996369</v>
+        <v>1.107055995618325</v>
       </c>
       <c r="G11">
-        <v>1.197133927309153</v>
+        <v>1.10579822294099</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00996631159764938</v>
+        <v>0.008624152543701413</v>
       </c>
       <c r="J11">
-        <v>0.6888505333961348</v>
+        <v>0.508871861810789</v>
       </c>
       <c r="K11">
-        <v>0.5913538683061361</v>
+        <v>0.4683536105141286</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1985510296275805</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1696922468825832</v>
       </c>
       <c r="N11">
-        <v>0.2398549582555916</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6775669195726053</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6449815447279903</v>
+        <v>0.2515467047724371</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6436875890027238</v>
+      </c>
+      <c r="R11">
+        <v>0.6828208636551096</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.057261820528197</v>
+        <v>3.730658059313669</v>
       </c>
       <c r="C12">
-        <v>0.953137362994795</v>
+        <v>1.001125618647933</v>
       </c>
       <c r="D12">
-        <v>0.03956552847374795</v>
+        <v>0.05072869057546825</v>
       </c>
       <c r="E12">
-        <v>0.0383564559562446</v>
+        <v>0.03652550277664712</v>
       </c>
       <c r="F12">
-        <v>1.322793931568967</v>
+        <v>1.11929249701285</v>
       </c>
       <c r="G12">
-        <v>1.22307162528142</v>
+        <v>1.152505813103005</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01099180732078242</v>
+        <v>0.009361417183032295</v>
       </c>
       <c r="J12">
-        <v>0.6994333728295601</v>
+        <v>0.4802331874854247</v>
       </c>
       <c r="K12">
-        <v>0.5984191380608124</v>
+        <v>0.4679393200725954</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1964392469544087</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1723798536590664</v>
       </c>
       <c r="N12">
-        <v>0.2452297888546866</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6949292454864775</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6356460332411267</v>
+        <v>0.2570024746965487</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6582686541081557</v>
+      </c>
+      <c r="R12">
+        <v>0.6779284187175492</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.036020101687427</v>
+        <v>3.714071935493848</v>
       </c>
       <c r="C13">
-        <v>0.9479997360130881</v>
+        <v>0.9969600472350066</v>
       </c>
       <c r="D13">
-        <v>0.03946250568853316</v>
+        <v>0.05040655658252291</v>
       </c>
       <c r="E13">
-        <v>0.03837196815288602</v>
+        <v>0.03654565595392967</v>
       </c>
       <c r="F13">
-        <v>1.317288325878195</v>
+        <v>1.117172515185345</v>
       </c>
       <c r="G13">
-        <v>1.218003714841387</v>
+        <v>1.142664324530159</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01073004849190262</v>
+        <v>0.009153352610631771</v>
       </c>
       <c r="J13">
-        <v>0.6974128673633686</v>
+        <v>0.4868292396842122</v>
       </c>
       <c r="K13">
-        <v>0.597238425951204</v>
+        <v>0.4683571448943482</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.197006642629745</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.171933642162017</v>
       </c>
       <c r="N13">
-        <v>0.2440318356511</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6912708782939347</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6375957394757492</v>
+        <v>0.2557895299532902</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6552230968371262</v>
+      </c>
+      <c r="R13">
+        <v>0.6788188586937878</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.963681153914933</v>
+        <v>3.656657533499128</v>
       </c>
       <c r="C14">
-        <v>0.9323608224577811</v>
+        <v>0.9842681646362337</v>
       </c>
       <c r="D14">
-        <v>0.03920278837850688</v>
+        <v>0.04947859174565394</v>
       </c>
       <c r="E14">
-        <v>0.03842233514106264</v>
+        <v>0.03661359225442906</v>
       </c>
       <c r="F14">
-        <v>1.297568219519192</v>
+        <v>1.108284381282587</v>
       </c>
       <c r="G14">
-        <v>1.199487496547391</v>
+        <v>1.109726019874302</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01003281267190825</v>
+        <v>0.008663398908991482</v>
       </c>
       <c r="J14">
-        <v>0.6898308513750635</v>
+        <v>0.5067100019976891</v>
       </c>
       <c r="K14">
-        <v>0.5920797304467413</v>
+        <v>0.4684606595530312</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1984259699459905</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1699699015882814</v>
       </c>
       <c r="N14">
-        <v>0.2402799270306986</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6790295909438768</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6441877162880871</v>
+        <v>0.2519794171085579</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6449277852316087</v>
+      </c>
+      <c r="R14">
+        <v>0.6823495788621088</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.917810457388669</v>
+        <v>3.619674770758706</v>
       </c>
       <c r="C15">
-        <v>0.9233595321371979</v>
+        <v>0.9768972168643586</v>
       </c>
       <c r="D15">
-        <v>0.03908280438442446</v>
+        <v>0.04897842057808788</v>
       </c>
       <c r="E15">
-        <v>0.03845315062846733</v>
+        <v>0.0366565033225692</v>
       </c>
       <c r="F15">
-        <v>1.284598134141987</v>
+        <v>1.101734495496146</v>
       </c>
       <c r="G15">
-        <v>1.187139983656664</v>
+        <v>1.089391065429737</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.009695601116095354</v>
+        <v>0.008468366491935164</v>
       </c>
       <c r="J15">
-        <v>0.6846848121465428</v>
+        <v>0.517758089350508</v>
       </c>
       <c r="K15">
-        <v>0.5882553503370573</v>
+        <v>0.4678347570526995</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1990567475251055</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1684945134719129</v>
       </c>
       <c r="N15">
-        <v>0.2380639666233861</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6713750347650134</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.648350807063828</v>
+        <v>0.249720861292559</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6384204388805159</v>
+      </c>
+      <c r="R15">
+        <v>0.6848537841311568</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.665439680482677</v>
+        <v>3.412213803498673</v>
       </c>
       <c r="C16">
-        <v>0.8684572273031392</v>
+        <v>0.9283192658420774</v>
       </c>
       <c r="D16">
-        <v>0.03814692453179802</v>
+        <v>0.04608598633774363</v>
       </c>
       <c r="E16">
-        <v>0.03863706835285985</v>
+        <v>0.03689564830808978</v>
       </c>
       <c r="F16">
-        <v>1.216849973646546</v>
+        <v>1.065532130952789</v>
       </c>
       <c r="G16">
-        <v>1.123670025822804</v>
+        <v>0.990904992681692</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.007503935193906131</v>
+        <v>0.006875866646206319</v>
       </c>
       <c r="J16">
-        <v>0.6588618733882186</v>
+        <v>0.57115708192093</v>
       </c>
       <c r="K16">
-        <v>0.570975826130713</v>
+        <v>0.4661501189365396</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2033419423839504</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1609771105882913</v>
       </c>
       <c r="N16">
-        <v>0.2250167035332851</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6286717359378784</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6718855989711123</v>
+        <v>0.2363297045549615</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6014392344400505</v>
+      </c>
+      <c r="R16">
+        <v>0.6990088425230319</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.510957604265911</v>
+        <v>3.280723460486627</v>
       </c>
       <c r="C17">
-        <v>0.8349728488504695</v>
+        <v>0.896202745222638</v>
       </c>
       <c r="D17">
-        <v>0.03757236600651837</v>
+        <v>0.04454445690686271</v>
       </c>
       <c r="E17">
-        <v>0.03875430072604114</v>
+        <v>0.03703731811443367</v>
       </c>
       <c r="F17">
-        <v>1.175843077559207</v>
+        <v>1.039891371694779</v>
       </c>
       <c r="G17">
-        <v>1.08527653334562</v>
+        <v>0.9402170022407859</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.006340935732399799</v>
+        <v>0.006011648047067553</v>
       </c>
       <c r="J17">
-        <v>0.6433122802660307</v>
+        <v>0.591527679472776</v>
       </c>
       <c r="K17">
-        <v>0.5606311454779416</v>
+        <v>0.463619727996452</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2054334392645316</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1559168459459492</v>
       </c>
       <c r="N17">
-        <v>0.2171155932067705</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6025734473801663</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6866145578383822</v>
+        <v>0.2281333341711758</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5781740886777698</v>
+      </c>
+      <c r="R17">
+        <v>0.7088080854100234</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.426221733763782</v>
+        <v>3.207382409639763</v>
       </c>
       <c r="C18">
-        <v>0.8143580554905157</v>
+        <v>0.8754241389862329</v>
       </c>
       <c r="D18">
-        <v>0.03714315208464569</v>
+        <v>0.04361924710919851</v>
       </c>
       <c r="E18">
-        <v>0.03882462459141633</v>
+        <v>0.03711234286586151</v>
       </c>
       <c r="F18">
-        <v>1.15481644394275</v>
+        <v>1.026099556788338</v>
       </c>
       <c r="G18">
-        <v>1.066037325855987</v>
+        <v>0.916752591127576</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005512943046798391</v>
+        <v>0.005277254003901888</v>
       </c>
       <c r="J18">
-        <v>0.6358011154063803</v>
+        <v>0.5995774266594225</v>
       </c>
       <c r="K18">
-        <v>0.5565064332544054</v>
+        <v>0.4631281848766164</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2069842598290812</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1534415891641814</v>
       </c>
       <c r="N18">
-        <v>0.2124189229118798</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.588009987439392</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6949516940451979</v>
+        <v>0.2232380238446581</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5649846934562603</v>
+      </c>
+      <c r="R18">
+        <v>0.7142713328335191</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.394458274732187</v>
+        <v>3.179398051520025</v>
       </c>
       <c r="C19">
-        <v>0.8084856126741045</v>
+        <v>0.8693984905464731</v>
       </c>
       <c r="D19">
-        <v>0.03707379169031455</v>
+        <v>0.04340903328515822</v>
       </c>
       <c r="E19">
-        <v>0.03884769227358209</v>
+        <v>0.03713965575821465</v>
       </c>
       <c r="F19">
-        <v>1.145903307435759</v>
+        <v>1.019557986377862</v>
       </c>
       <c r="G19">
-        <v>1.057506000029193</v>
+        <v>0.9074888916246948</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005411522322113171</v>
+        <v>0.005245907112414017</v>
       </c>
       <c r="J19">
-        <v>0.6322486808456063</v>
+        <v>0.6005192666440138</v>
       </c>
       <c r="K19">
-        <v>0.5537856074891891</v>
+        <v>0.4617204461863977</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2070526571671181</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1521300047924576</v>
       </c>
       <c r="N19">
-        <v>0.2109799460766624</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5827651104322911</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6979761422534381</v>
+        <v>0.2217270467592698</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5601812250739613</v>
+      </c>
+      <c r="R19">
+        <v>0.7165995814628339</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.527705633396749</v>
+        <v>3.295171287049698</v>
       </c>
       <c r="C20">
-        <v>0.8384185747209472</v>
+        <v>0.899590471623128</v>
       </c>
       <c r="D20">
-        <v>0.0376257845925565</v>
+        <v>0.04469102903831157</v>
       </c>
       <c r="E20">
-        <v>0.0387417517715265</v>
+        <v>0.03702228598555291</v>
       </c>
       <c r="F20">
-        <v>1.18037402000293</v>
+        <v>1.0429168455655</v>
       </c>
       <c r="G20">
-        <v>1.089552349661773</v>
+        <v>0.945456592979383</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00644045196444587</v>
+        <v>0.006077341149317128</v>
       </c>
       <c r="J20">
-        <v>0.6450613190133083</v>
+        <v>0.589952667225532</v>
       </c>
       <c r="K20">
-        <v>0.5618592095752248</v>
+        <v>0.4640612864019715</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2052739129623582</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1565171627724027</v>
       </c>
       <c r="N20">
-        <v>0.2179381224092367</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6053806829956159</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6850165206439662</v>
+        <v>0.2289903282262316</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5807028339113316</v>
+      </c>
+      <c r="R20">
+        <v>0.7076821666151965</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.980400663415082</v>
+        <v>3.662528713933625</v>
       </c>
       <c r="C21">
-        <v>0.9385471948989448</v>
+        <v>0.9856271694010275</v>
       </c>
       <c r="D21">
-        <v>0.03939043373741313</v>
+        <v>0.05024708039805859</v>
       </c>
       <c r="E21">
-        <v>0.03840648733185836</v>
+        <v>0.03657795935054819</v>
       </c>
       <c r="F21">
-        <v>1.300693488219949</v>
+        <v>1.102427565037985</v>
       </c>
       <c r="G21">
-        <v>1.201935340457879</v>
+        <v>1.131027898031419</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01045059344369648</v>
+        <v>0.009052049604427737</v>
       </c>
       <c r="J21">
-        <v>0.6905617327837774</v>
+        <v>0.4789258995663204</v>
       </c>
       <c r="K21">
-        <v>0.5916459131613294</v>
+        <v>0.4641485196295676</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1965229396373971</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1687860193986594</v>
       </c>
       <c r="N21">
-        <v>0.2415906187178791</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6821552780940365</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6425443892868827</v>
+        <v>0.2531740959315272</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.646504875561476</v>
+      </c>
+      <c r="R21">
+        <v>0.6832235660932326</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.283281306981735</v>
+        <v>3.904673270004707</v>
       </c>
       <c r="C22">
-        <v>1.002678917913016</v>
+        <v>1.038612871012504</v>
       </c>
       <c r="D22">
-        <v>0.04040117690333389</v>
+        <v>0.05396713232059369</v>
       </c>
       <c r="E22">
-        <v>0.03820352834662177</v>
+        <v>0.03632288049228904</v>
       </c>
       <c r="F22">
-        <v>1.384659393728356</v>
+        <v>1.142747552692157</v>
       </c>
       <c r="G22">
-        <v>1.281090504460451</v>
+        <v>1.267668450762244</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01342276990732483</v>
+        <v>0.01106818078317318</v>
       </c>
       <c r="J22">
-        <v>0.7232131962516064</v>
+        <v>0.4092973528172053</v>
       </c>
       <c r="K22">
-        <v>0.6144754093433704</v>
+        <v>0.4656168327889674</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1913544041993163</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1778147806859067</v>
       </c>
       <c r="N22">
-        <v>0.2571410252809727</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.733284967154745</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6153978158693256</v>
+        <v>0.2689928531386983</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6897395440728644</v>
+      </c>
+      <c r="R22">
+        <v>0.6685413182817115</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.126959759718829</v>
+        <v>3.785571937535508</v>
       </c>
       <c r="C23">
-        <v>0.966453236130377</v>
+        <v>1.011255156397056</v>
       </c>
       <c r="D23">
-        <v>0.0397275316233312</v>
+        <v>0.05153124805103459</v>
       </c>
       <c r="E23">
-        <v>0.03831158172619054</v>
+        <v>0.03646270928971207</v>
       </c>
       <c r="F23">
-        <v>1.342862693141015</v>
+        <v>1.128477281543013</v>
       </c>
       <c r="G23">
-        <v>1.242255947791193</v>
+        <v>1.186711313634731</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01153457500328159</v>
+        <v>0.009661027865330851</v>
       </c>
       <c r="J23">
-        <v>0.7074874749934281</v>
+        <v>0.4612110274215979</v>
       </c>
       <c r="K23">
-        <v>0.604552414416986</v>
+        <v>0.4686891963270696</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1954293442349346</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1745559920436079</v>
       </c>
       <c r="N23">
-        <v>0.2485531289002694</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7065259168117848</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6294315657455876</v>
+        <v>0.2603634460857194</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6679319932342977</v>
+      </c>
+      <c r="R23">
+        <v>0.6744070426858855</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.528632451458975</v>
+        <v>3.296624938881564</v>
       </c>
       <c r="C24">
-        <v>0.8338511073366419</v>
+        <v>0.8949180057281865</v>
       </c>
       <c r="D24">
-        <v>0.03739313659995602</v>
+        <v>0.04437552632942499</v>
       </c>
       <c r="E24">
-        <v>0.03875012140973944</v>
+        <v>0.03702230348348312</v>
       </c>
       <c r="F24">
-        <v>1.183342176224386</v>
+        <v>1.046130333284694</v>
       </c>
       <c r="G24">
-        <v>1.093248314447067</v>
+        <v>0.9482003636900345</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.005967026169017231</v>
+        <v>0.005509352141651824</v>
       </c>
       <c r="J24">
-        <v>0.6470898274982773</v>
+        <v>0.5931987851086973</v>
       </c>
       <c r="K24">
-        <v>0.5649841157632878</v>
+        <v>0.4670201190123677</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2064936546801697</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1574885857069717</v>
       </c>
       <c r="N24">
-        <v>0.217167823982507</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6049898201186252</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6852307583968695</v>
+        <v>0.2282045885993966</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5803956589021695</v>
+      </c>
+      <c r="R24">
+        <v>0.7070225249688313</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.887638041843161</v>
+        <v>2.714807175084161</v>
       </c>
       <c r="C25">
-        <v>0.6931775889928815</v>
+        <v>0.7392129284123428</v>
       </c>
       <c r="D25">
-        <v>0.03486164325079955</v>
+        <v>0.03955507897278565</v>
       </c>
       <c r="E25">
-        <v>0.03928467757987897</v>
+        <v>0.03752532333999348</v>
       </c>
       <c r="F25">
-        <v>1.018715007349726</v>
+        <v>0.9128796569635114</v>
       </c>
       <c r="G25">
-        <v>0.9398213513605924</v>
+        <v>0.8136206533043264</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002241111125850459</v>
+        <v>0.002459513723133355</v>
       </c>
       <c r="J25">
-        <v>0.5859075366815887</v>
+        <v>0.5590246662505791</v>
       </c>
       <c r="K25">
-        <v>0.525830375654941</v>
+        <v>0.4457630077132677</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2110308909310845</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1338063154238256</v>
       </c>
       <c r="N25">
-        <v>0.1846578244884469</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4967467824297955</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.749423456869005</v>
+        <v>0.1938006731886901</v>
       </c>
       <c r="Q25">
+        <v>0.4785371454998355</v>
+      </c>
+      <c r="R25">
+        <v>0.7559205065057846</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
